--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_02_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ceylon and the Doctor escape from Cronin's grasp, and soon meet Schwarz, who Ceylon had introduced earlier. However, it seems that she's not on the same team…
+    <t xml:space="preserve">Ceylon and the Doctor escape from Cronin's grasp, and soon meet Schwarz, who Ceylon had introduced earlier. However, it seems that she's not on the same team...
 </t>
   </si>
   <si>
